--- a/Capex/election_data/Assembly-elections.xlsx
+++ b/Capex/election_data/Assembly-elections.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/Capex/election_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCBB9CB-93D5-6845-8A89-831BE904A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7BCBB9CB-93D5-6845-8A89-831BE904A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85AC640-633A-DD4E-A8EC-86A69B15D51D}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="980" windowWidth="27240" windowHeight="14600" activeTab="1" xr2:uid="{F4A064C8-720D-0840-BC92-FFF0422F84E6}"/>
+    <workbookView xWindow="780" yWindow="980" windowWidth="27240" windowHeight="14600" firstSheet="1" activeTab="1" xr2:uid="{F4A064C8-720D-0840-BC92-FFF0422F84E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,814 +49,814 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
+    <t>2019   </t>
+  </si>
+  <si>
+    <t>2014  </t>
+  </si>
+  <si>
+    <t> 2009 </t>
+  </si>
+  <si>
+    <t>  2004</t>
+  </si>
+  <si>
+    <t>   1999  </t>
+  </si>
+  <si>
+    <t> 1994</t>
+  </si>
+  <si>
+    <t>   1989</t>
+  </si>
+  <si>
+    <t>   1985</t>
+  </si>
+  <si>
+    <t>   1983</t>
+  </si>
+  <si>
+    <t>   1978</t>
+  </si>
+  <si>
+    <t>   1972</t>
+  </si>
+  <si>
+    <t>   1967</t>
+  </si>
+  <si>
+    <t>   1962</t>
+  </si>
+  <si>
+    <t>   1957</t>
+  </si>
+  <si>
+    <t>   1955</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
     <t>Arunachal Pradesh</t>
   </si>
   <si>
+    <t>2019 </t>
+  </si>
+  <si>
+    <t>  2014  </t>
+  </si>
+  <si>
+    <t>  2004  </t>
+  </si>
+  <si>
+    <t> 1999  </t>
+  </si>
+  <si>
+    <t> 1995 </t>
+  </si>
+  <si>
+    <t>  1990 </t>
+  </si>
+  <si>
+    <t>  1984 </t>
+  </si>
+  <si>
+    <t>  1980  </t>
+  </si>
+  <si>
+    <t> 1978 </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Assam</t>
   </si>
   <si>
+    <t>2021 </t>
+  </si>
+  <si>
+    <t>  2016  </t>
+  </si>
+  <si>
+    <t> 2011 </t>
+  </si>
+  <si>
+    <t>  2006  </t>
+  </si>
+  <si>
+    <t> 2001  </t>
+  </si>
+  <si>
+    <t> 1996 </t>
+  </si>
+  <si>
+    <t>  1991 </t>
+  </si>
+  <si>
+    <t>  1985 </t>
+  </si>
+  <si>
+    <t>  1983  </t>
+  </si>
+  <si>
+    <t>  1972  </t>
+  </si>
+  <si>
+    <t> 1967  </t>
+  </si>
+  <si>
+    <t> 1962</t>
+  </si>
+  <si>
+    <t>   1957  </t>
+  </si>
+  <si>
+    <t> 1951 </t>
+  </si>
+  <si>
     <t>Bihar</t>
   </si>
   <si>
+    <t>2020 </t>
+  </si>
+  <si>
+    <t>  2015  </t>
+  </si>
+  <si>
+    <t> 2010 </t>
+  </si>
+  <si>
+    <t>  2005  </t>
+  </si>
+  <si>
+    <t> 2000  </t>
+  </si>
+  <si>
+    <t> 1977 </t>
+  </si>
+  <si>
+    <t> 1969  </t>
+  </si>
+  <si>
+    <t> 1967</t>
+  </si>
+  <si>
+    <t>   1962  </t>
+  </si>
+  <si>
+    <t> 1957 </t>
+  </si>
+  <si>
+    <t>  1951 </t>
+  </si>
+  <si>
     <t>Chhattisgarh</t>
   </si>
   <si>
+    <t>2018  </t>
+  </si>
+  <si>
+    <t>  2013  </t>
+  </si>
+  <si>
+    <t>  2008  </t>
+  </si>
+  <si>
+    <t>   2003  </t>
+  </si>
+  <si>
     <t>Delhi</t>
   </si>
   <si>
+    <t>2020  </t>
+  </si>
+  <si>
+    <t>   2015  </t>
+  </si>
+  <si>
+    <t>  2013   </t>
+  </si>
+  <si>
+    <t> 2008  </t>
+  </si>
+  <si>
+    <t>  2003  </t>
+  </si>
+  <si>
+    <t>  1998   </t>
+  </si>
+  <si>
+    <t>1993 </t>
+  </si>
+  <si>
+    <t>  1983 </t>
+  </si>
+  <si>
+    <t>  1977 </t>
+  </si>
+  <si>
+    <t>  1972 </t>
+  </si>
+  <si>
+    <t>  1951  </t>
+  </si>
+  <si>
     <t>Goa</t>
   </si>
   <si>
+    <t>2022  </t>
+  </si>
+  <si>
+    <t>  2017  </t>
+  </si>
+  <si>
+    <t> 2012  </t>
+  </si>
+  <si>
+    <t>  2007  </t>
+  </si>
+  <si>
+    <t> 2002  </t>
+  </si>
+  <si>
+    <t> 1999 </t>
+  </si>
+  <si>
+    <t>  1994   </t>
+  </si>
+  <si>
+    <t>1989 </t>
+  </si>
+  <si>
+    <t> 1977  </t>
+  </si>
+  <si>
+    <t> 1972  </t>
+  </si>
+  <si>
     <t>Gujarat</t>
   </si>
   <si>
+    <t> 2017  </t>
+  </si>
+  <si>
+    <t>  2007 </t>
+  </si>
+  <si>
+    <t>   2002</t>
+  </si>
+  <si>
+    <t>    1998</t>
+  </si>
+  <si>
+    <t>   1995</t>
+  </si>
+  <si>
+    <t>   1990</t>
+  </si>
+  <si>
+    <t>   1980</t>
+  </si>
+  <si>
+    <t>   1975</t>
+  </si>
+  <si>
     <t>Haryana</t>
   </si>
   <si>
+    <t>2019  </t>
+  </si>
+  <si>
+    <t> 2014  </t>
+  </si>
+  <si>
+    <t> 2009  </t>
+  </si>
+  <si>
+    <t> 2005  </t>
+  </si>
+  <si>
+    <t> 1996   </t>
+  </si>
+  <si>
+    <t>1991   </t>
+  </si>
+  <si>
+    <t>1987   </t>
+  </si>
+  <si>
+    <t>1982   </t>
+  </si>
+  <si>
+    <t>1977   </t>
+  </si>
+  <si>
+    <t>1972   </t>
+  </si>
+  <si>
+    <t>1968   </t>
+  </si>
+  <si>
+    <t>1967  </t>
+  </si>
+  <si>
     <t>Himachal Pradesh</t>
   </si>
   <si>
+    <t> 2007  </t>
+  </si>
+  <si>
+    <t> 2003  </t>
+  </si>
+  <si>
+    <t>  1998  </t>
+  </si>
+  <si>
+    <t> 1993  </t>
+  </si>
+  <si>
+    <t> 1990  </t>
+  </si>
+  <si>
+    <t> 1985  </t>
+  </si>
+  <si>
+    <t> 1982  </t>
+  </si>
+  <si>
+    <t> 1951  </t>
+  </si>
+  <si>
     <t>Jammu &amp; Kashmir</t>
   </si>
   <si>
+    <t>  2002 </t>
+  </si>
+  <si>
+    <t>  1996 </t>
+  </si>
+  <si>
+    <t>  1987 </t>
+  </si>
+  <si>
+    <t> 1962  </t>
+  </si>
+  <si>
     <t>Jharkhand</t>
   </si>
   <si>
     <t>Karnataka</t>
   </si>
   <si>
+    <t>2023  </t>
+  </si>
+  <si>
+    <t> 2018  </t>
+  </si>
+  <si>
+    <t> 2013  </t>
+  </si>
+  <si>
+    <t>  2004 </t>
+  </si>
+  <si>
+    <t>  1999  </t>
+  </si>
+  <si>
+    <t> 1994  </t>
+  </si>
+  <si>
+    <t> 1989  </t>
+  </si>
+  <si>
+    <t> 1983  </t>
+  </si>
+  <si>
+    <t> 1978  </t>
+  </si>
+  <si>
+    <t> 1957  </t>
+  </si>
+  <si>
     <t>Kerala</t>
   </si>
   <si>
+    <t>2021  </t>
+  </si>
+  <si>
+    <t> 2016  </t>
+  </si>
+  <si>
+    <t> 2011  </t>
+  </si>
+  <si>
+    <t> 2006  </t>
+  </si>
+  <si>
+    <t>1980   </t>
+  </si>
+  <si>
+    <t>1970   </t>
+  </si>
+  <si>
+    <t>1967   </t>
+  </si>
+  <si>
+    <t>1965   </t>
+  </si>
+  <si>
+    <t>1960   </t>
+  </si>
+  <si>
+    <t>1957  </t>
+  </si>
+  <si>
     <t>Madhya Pradesh</t>
   </si>
   <si>
+    <t>2018    </t>
+  </si>
+  <si>
+    <t> 2013   </t>
+  </si>
+  <si>
+    <t> 2008 </t>
+  </si>
+  <si>
+    <t>  1998 </t>
+  </si>
+  <si>
+    <t>  1993 </t>
+  </si>
+  <si>
+    <t>  1990  </t>
+  </si>
+  <si>
+    <t> 1980  </t>
+  </si>
+  <si>
+    <t> 1972 </t>
+  </si>
+  <si>
+    <t>  1967 </t>
+  </si>
+  <si>
+    <t>  1962  </t>
+  </si>
+  <si>
     <t>Maharashtra</t>
   </si>
   <si>
+    <t>2019    </t>
+  </si>
+  <si>
+    <t> 2014   </t>
+  </si>
+  <si>
+    <t> 1995  </t>
+  </si>
+  <si>
+    <t> 1990   </t>
+  </si>
+  <si>
+    <t>1985   </t>
+  </si>
+  <si>
+    <t>1978   </t>
+  </si>
+  <si>
+    <t>1972  </t>
+  </si>
+  <si>
     <t>Manipur</t>
   </si>
   <si>
+    <t>2022    </t>
+  </si>
+  <si>
+    <t>2017    </t>
+  </si>
+  <si>
+    <t>2012  </t>
+  </si>
+  <si>
+    <t> 1995   </t>
+  </si>
+  <si>
+    <t>1990   </t>
+  </si>
+  <si>
+    <t>1984   </t>
+  </si>
+  <si>
+    <t>1974  </t>
+  </si>
+  <si>
+    <t>  1967  </t>
+  </si>
+  <si>
     <t>Meghalaya</t>
   </si>
   <si>
+    <t> 2018 </t>
+  </si>
+  <si>
+    <t>   2013  </t>
+  </si>
+  <si>
+    <t>  2008 </t>
+  </si>
+  <si>
+    <t>   2003 </t>
+  </si>
+  <si>
+    <t>   1998 </t>
+  </si>
+  <si>
+    <t>  1993  </t>
+  </si>
+  <si>
+    <t> 1988 </t>
+  </si>
+  <si>
     <t>Mizoram</t>
   </si>
   <si>
+    <t>  2008   </t>
+  </si>
+  <si>
+    <t> 2003</t>
+  </si>
+  <si>
+    <t>    1998  </t>
+  </si>
+  <si>
+    <t> 1993   </t>
+  </si>
+  <si>
+    <t>  1984   </t>
+  </si>
+  <si>
+    <t>1979  </t>
+  </si>
+  <si>
     <t>Nagaland</t>
   </si>
   <si>
+    <t> 1998  </t>
+  </si>
+  <si>
+    <t> 1993 </t>
+  </si>
+  <si>
+    <t>  1989 </t>
+  </si>
+  <si>
+    <t>  1982 </t>
+  </si>
+  <si>
+    <t>  1974  </t>
+  </si>
+  <si>
+    <t> 1969 </t>
+  </si>
+  <si>
+    <t>  1964 </t>
+  </si>
+  <si>
     <t>Odisha</t>
   </si>
   <si>
+    <t> 2009   </t>
+  </si>
+  <si>
+    <t>2004  </t>
+  </si>
+  <si>
+    <t> 2000   </t>
+  </si>
+  <si>
+    <t>1995   </t>
+  </si>
+  <si>
+    <t>1990  </t>
+  </si>
+  <si>
+    <t> 1974  </t>
+  </si>
+  <si>
+    <t> 1971   </t>
+  </si>
+  <si>
+    <t> 1961  </t>
+  </si>
+  <si>
     <t>Punjab</t>
   </si>
   <si>
+    <t>  2017 </t>
+  </si>
+  <si>
+    <t>  2012  </t>
+  </si>
+  <si>
+    <t>  2007</t>
+  </si>
+  <si>
+    <t>   2002 </t>
+  </si>
+  <si>
+    <t>  1997 </t>
+  </si>
+  <si>
+    <t>  1992</t>
+  </si>
+  <si>
+    <t>   1977</t>
+  </si>
+  <si>
+    <t>   1969 </t>
+  </si>
+  <si>
+    <t>  1967</t>
+  </si>
+  <si>
+    <t>   1951  </t>
+  </si>
+  <si>
     <t>Puducherry</t>
   </si>
   <si>
+    <t>2021   </t>
+  </si>
+  <si>
+    <t>2016   </t>
+  </si>
+  <si>
+    <t>2011    </t>
+  </si>
+  <si>
+    <t>2006   </t>
+  </si>
+  <si>
+    <t>2001   </t>
+  </si>
+  <si>
+    <t>   1991 </t>
+  </si>
+  <si>
+    <t>  1985</t>
+  </si>
+  <si>
+    <t>   1977 </t>
+  </si>
+  <si>
+    <t>  1974 </t>
+  </si>
+  <si>
+    <t>  1969</t>
+  </si>
+  <si>
+    <t>   1964 </t>
+  </si>
+  <si>
     <t>Rajasthan</t>
   </si>
   <si>
+    <t>2018   </t>
+  </si>
+  <si>
+    <t>  2013 </t>
+  </si>
+  <si>
+    <t>   2008 </t>
+  </si>
+  <si>
+    <t>   2003</t>
+  </si>
+  <si>
+    <t>1985  </t>
+  </si>
+  <si>
+    <t> 1977   </t>
+  </si>
+  <si>
+    <t> 1962   </t>
+  </si>
+  <si>
+    <t>1957 </t>
+  </si>
+  <si>
     <t>Sikkim</t>
   </si>
   <si>
+    <t>   1999</t>
+  </si>
+  <si>
+    <t>   1994 </t>
+  </si>
+  <si>
+    <t>  1989</t>
+  </si>
+  <si>
+    <t>   1979  </t>
+  </si>
+  <si>
     <t>Tamil Nadu</t>
   </si>
   <si>
+    <t> 2016   </t>
+  </si>
+  <si>
+    <t>2011  </t>
+  </si>
+  <si>
+    <t> 2006 </t>
+  </si>
+  <si>
+    <t>  2001 </t>
+  </si>
+  <si>
+    <t>  1996  </t>
+  </si>
+  <si>
+    <t> 1991 </t>
+  </si>
+  <si>
+    <t>1980 </t>
+  </si>
+  <si>
+    <t>   1977   </t>
+  </si>
+  <si>
+    <t>1971  </t>
+  </si>
+  <si>
     <t>Telangana</t>
   </si>
   <si>
     <t>Tripura</t>
   </si>
   <si>
+    <t>2023 </t>
+  </si>
+  <si>
+    <t> 2018   </t>
+  </si>
+  <si>
+    <t>  2003 </t>
+  </si>
+  <si>
+    <t>  1988</t>
+  </si>
+  <si>
     <t>Uttar Pradesh</t>
   </si>
   <si>
+    <t>2022 </t>
+  </si>
+  <si>
+    <t>1993   </t>
+  </si>
+  <si>
+    <t>1991  </t>
+  </si>
+  <si>
+    <t> 1985   </t>
+  </si>
+  <si>
+    <t>1977  </t>
+  </si>
+  <si>
+    <t> 1974 </t>
+  </si>
+  <si>
+    <t>  1969  </t>
+  </si>
+  <si>
+    <t> 1967 </t>
+  </si>
+  <si>
+    <t>  1962 </t>
+  </si>
+  <si>
+    <t>  1957  </t>
+  </si>
+  <si>
     <t>Uttarakhand</t>
   </si>
   <si>
+    <t>   2017 </t>
+  </si>
+  <si>
+    <t>  2012 </t>
+  </si>
+  <si>
+    <t>   2007 </t>
+  </si>
+  <si>
     <t>West Bengal</t>
-  </si>
-  <si>
-    <t>2019   </t>
-  </si>
-  <si>
-    <t>2014  </t>
-  </si>
-  <si>
-    <t> 2009 </t>
-  </si>
-  <si>
-    <t>  2004</t>
-  </si>
-  <si>
-    <t>   1999  </t>
-  </si>
-  <si>
-    <t> 1994</t>
-  </si>
-  <si>
-    <t>   1989</t>
-  </si>
-  <si>
-    <t>   1985</t>
-  </si>
-  <si>
-    <t>   1983</t>
-  </si>
-  <si>
-    <t>   1978</t>
-  </si>
-  <si>
-    <t>   1972</t>
-  </si>
-  <si>
-    <t>   1967</t>
-  </si>
-  <si>
-    <t>   1962</t>
-  </si>
-  <si>
-    <t>   1957</t>
-  </si>
-  <si>
-    <t>   1955</t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t>2019 </t>
-  </si>
-  <si>
-    <t>  2014  </t>
-  </si>
-  <si>
-    <t>  2004  </t>
-  </si>
-  <si>
-    <t> 1999  </t>
-  </si>
-  <si>
-    <t> 1995 </t>
-  </si>
-  <si>
-    <t>  1990 </t>
-  </si>
-  <si>
-    <t>  1984 </t>
-  </si>
-  <si>
-    <t>  1980  </t>
-  </si>
-  <si>
-    <t> 1978 </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>2021 </t>
-  </si>
-  <si>
-    <t>  2016  </t>
-  </si>
-  <si>
-    <t> 2011 </t>
-  </si>
-  <si>
-    <t>  2006  </t>
-  </si>
-  <si>
-    <t> 2001  </t>
-  </si>
-  <si>
-    <t> 1996 </t>
-  </si>
-  <si>
-    <t>  1991 </t>
-  </si>
-  <si>
-    <t>  1985 </t>
-  </si>
-  <si>
-    <t>  1983  </t>
-  </si>
-  <si>
-    <t>  1972  </t>
-  </si>
-  <si>
-    <t> 1967  </t>
-  </si>
-  <si>
-    <t> 1962</t>
-  </si>
-  <si>
-    <t>   1957  </t>
-  </si>
-  <si>
-    <t> 1951 </t>
-  </si>
-  <si>
-    <t>2020 </t>
-  </si>
-  <si>
-    <t>  2015  </t>
-  </si>
-  <si>
-    <t> 2010 </t>
-  </si>
-  <si>
-    <t>  2005  </t>
-  </si>
-  <si>
-    <t> 2000  </t>
-  </si>
-  <si>
-    <t> 1977 </t>
-  </si>
-  <si>
-    <t> 1969  </t>
-  </si>
-  <si>
-    <t> 1967</t>
-  </si>
-  <si>
-    <t>   1962  </t>
-  </si>
-  <si>
-    <t> 1957 </t>
-  </si>
-  <si>
-    <t>  1951 </t>
-  </si>
-  <si>
-    <t>2018  </t>
-  </si>
-  <si>
-    <t>  2013  </t>
-  </si>
-  <si>
-    <t>  2008  </t>
-  </si>
-  <si>
-    <t>   2003  </t>
-  </si>
-  <si>
-    <t>2020  </t>
-  </si>
-  <si>
-    <t>   2015  </t>
-  </si>
-  <si>
-    <t>  2013   </t>
-  </si>
-  <si>
-    <t> 2008  </t>
-  </si>
-  <si>
-    <t>  2003  </t>
-  </si>
-  <si>
-    <t>  1998   </t>
-  </si>
-  <si>
-    <t>1993 </t>
-  </si>
-  <si>
-    <t>  1983 </t>
-  </si>
-  <si>
-    <t>  1977 </t>
-  </si>
-  <si>
-    <t>  1972 </t>
-  </si>
-  <si>
-    <t>  1951  </t>
-  </si>
-  <si>
-    <t>2022  </t>
-  </si>
-  <si>
-    <t>  2017  </t>
-  </si>
-  <si>
-    <t> 2012  </t>
-  </si>
-  <si>
-    <t>  2007  </t>
-  </si>
-  <si>
-    <t> 2002  </t>
-  </si>
-  <si>
-    <t> 1999 </t>
-  </si>
-  <si>
-    <t>  1994   </t>
-  </si>
-  <si>
-    <t>1989 </t>
-  </si>
-  <si>
-    <t> 1977  </t>
-  </si>
-  <si>
-    <t> 1972  </t>
-  </si>
-  <si>
-    <t> 2017  </t>
-  </si>
-  <si>
-    <t>  2007 </t>
-  </si>
-  <si>
-    <t>   2002</t>
-  </si>
-  <si>
-    <t>    1998</t>
-  </si>
-  <si>
-    <t>   1995</t>
-  </si>
-  <si>
-    <t>   1990</t>
-  </si>
-  <si>
-    <t>   1980</t>
-  </si>
-  <si>
-    <t>   1975</t>
-  </si>
-  <si>
-    <t>2019  </t>
-  </si>
-  <si>
-    <t> 2014  </t>
-  </si>
-  <si>
-    <t> 2009  </t>
-  </si>
-  <si>
-    <t> 2005  </t>
-  </si>
-  <si>
-    <t> 1996   </t>
-  </si>
-  <si>
-    <t>1991   </t>
-  </si>
-  <si>
-    <t>1987   </t>
-  </si>
-  <si>
-    <t>1982   </t>
-  </si>
-  <si>
-    <t>1977   </t>
-  </si>
-  <si>
-    <t>1972   </t>
-  </si>
-  <si>
-    <t>1968   </t>
-  </si>
-  <si>
-    <t>1967  </t>
-  </si>
-  <si>
-    <t> 2007  </t>
-  </si>
-  <si>
-    <t> 2003  </t>
-  </si>
-  <si>
-    <t>  1998  </t>
-  </si>
-  <si>
-    <t> 1993  </t>
-  </si>
-  <si>
-    <t> 1990  </t>
-  </si>
-  <si>
-    <t> 1985  </t>
-  </si>
-  <si>
-    <t> 1982  </t>
-  </si>
-  <si>
-    <t> 1951  </t>
-  </si>
-  <si>
-    <t>  2002 </t>
-  </si>
-  <si>
-    <t>  1996 </t>
-  </si>
-  <si>
-    <t>  1987 </t>
-  </si>
-  <si>
-    <t> 1962  </t>
-  </si>
-  <si>
-    <t>2023  </t>
-  </si>
-  <si>
-    <t> 2018  </t>
-  </si>
-  <si>
-    <t> 2013  </t>
-  </si>
-  <si>
-    <t>  2004 </t>
-  </si>
-  <si>
-    <t>  1999  </t>
-  </si>
-  <si>
-    <t> 1994  </t>
-  </si>
-  <si>
-    <t> 1989  </t>
-  </si>
-  <si>
-    <t> 1983  </t>
-  </si>
-  <si>
-    <t> 1978  </t>
-  </si>
-  <si>
-    <t> 1957  </t>
-  </si>
-  <si>
-    <t>2021  </t>
-  </si>
-  <si>
-    <t> 2016  </t>
-  </si>
-  <si>
-    <t> 2011  </t>
-  </si>
-  <si>
-    <t> 2006  </t>
-  </si>
-  <si>
-    <t>1980   </t>
-  </si>
-  <si>
-    <t>1970   </t>
-  </si>
-  <si>
-    <t>1967   </t>
-  </si>
-  <si>
-    <t>1965   </t>
-  </si>
-  <si>
-    <t>1960   </t>
-  </si>
-  <si>
-    <t>1957  </t>
-  </si>
-  <si>
-    <t>2018    </t>
-  </si>
-  <si>
-    <t> 2013   </t>
-  </si>
-  <si>
-    <t> 2008 </t>
-  </si>
-  <si>
-    <t>  1998 </t>
-  </si>
-  <si>
-    <t>  1993 </t>
-  </si>
-  <si>
-    <t>  1990  </t>
-  </si>
-  <si>
-    <t> 1980  </t>
-  </si>
-  <si>
-    <t> 1972 </t>
-  </si>
-  <si>
-    <t>  1967 </t>
-  </si>
-  <si>
-    <t>  1962  </t>
-  </si>
-  <si>
-    <t>2019    </t>
-  </si>
-  <si>
-    <t> 2014   </t>
-  </si>
-  <si>
-    <t> 1995  </t>
-  </si>
-  <si>
-    <t> 1990   </t>
-  </si>
-  <si>
-    <t>1985   </t>
-  </si>
-  <si>
-    <t>1978   </t>
-  </si>
-  <si>
-    <t>1972  </t>
-  </si>
-  <si>
-    <t>2022    </t>
-  </si>
-  <si>
-    <t>2017    </t>
-  </si>
-  <si>
-    <t>2012  </t>
-  </si>
-  <si>
-    <t> 1995   </t>
-  </si>
-  <si>
-    <t>1990   </t>
-  </si>
-  <si>
-    <t>1984   </t>
-  </si>
-  <si>
-    <t>1974  </t>
-  </si>
-  <si>
-    <t>  1967  </t>
-  </si>
-  <si>
-    <t> 2018 </t>
-  </si>
-  <si>
-    <t>   2013  </t>
-  </si>
-  <si>
-    <t>  2008 </t>
-  </si>
-  <si>
-    <t>   2003 </t>
-  </si>
-  <si>
-    <t>   1998 </t>
-  </si>
-  <si>
-    <t>  1993  </t>
-  </si>
-  <si>
-    <t> 1988 </t>
-  </si>
-  <si>
-    <t>  2008   </t>
-  </si>
-  <si>
-    <t> 2003</t>
-  </si>
-  <si>
-    <t>    1998  </t>
-  </si>
-  <si>
-    <t> 1993   </t>
-  </si>
-  <si>
-    <t>  1984   </t>
-  </si>
-  <si>
-    <t>1979  </t>
-  </si>
-  <si>
-    <t> 1998  </t>
-  </si>
-  <si>
-    <t> 1993 </t>
-  </si>
-  <si>
-    <t>  1989 </t>
-  </si>
-  <si>
-    <t>  1982 </t>
-  </si>
-  <si>
-    <t>  1974  </t>
-  </si>
-  <si>
-    <t> 1969 </t>
-  </si>
-  <si>
-    <t>  1964 </t>
-  </si>
-  <si>
-    <t> 2009   </t>
-  </si>
-  <si>
-    <t>2004  </t>
-  </si>
-  <si>
-    <t> 2000   </t>
-  </si>
-  <si>
-    <t>1995   </t>
-  </si>
-  <si>
-    <t>1990  </t>
-  </si>
-  <si>
-    <t> 1974  </t>
-  </si>
-  <si>
-    <t> 1971   </t>
-  </si>
-  <si>
-    <t> 1961  </t>
-  </si>
-  <si>
-    <t>  2017 </t>
-  </si>
-  <si>
-    <t>  2012  </t>
-  </si>
-  <si>
-    <t>  2007</t>
-  </si>
-  <si>
-    <t>   2002 </t>
-  </si>
-  <si>
-    <t>  1997 </t>
-  </si>
-  <si>
-    <t>  1992</t>
-  </si>
-  <si>
-    <t>   1977</t>
-  </si>
-  <si>
-    <t>   1969 </t>
-  </si>
-  <si>
-    <t>  1967</t>
-  </si>
-  <si>
-    <t>   1951  </t>
-  </si>
-  <si>
-    <t>2021   </t>
-  </si>
-  <si>
-    <t>2016   </t>
-  </si>
-  <si>
-    <t>2011    </t>
-  </si>
-  <si>
-    <t>2006   </t>
-  </si>
-  <si>
-    <t>2001   </t>
-  </si>
-  <si>
-    <t>   1991 </t>
-  </si>
-  <si>
-    <t>  1985</t>
-  </si>
-  <si>
-    <t>   1977 </t>
-  </si>
-  <si>
-    <t>  1974 </t>
-  </si>
-  <si>
-    <t>  1969</t>
-  </si>
-  <si>
-    <t>   1964 </t>
-  </si>
-  <si>
-    <t>2018   </t>
-  </si>
-  <si>
-    <t>  2013 </t>
-  </si>
-  <si>
-    <t>   2008 </t>
-  </si>
-  <si>
-    <t>   2003</t>
-  </si>
-  <si>
-    <t>1985  </t>
-  </si>
-  <si>
-    <t> 1977   </t>
-  </si>
-  <si>
-    <t> 1962   </t>
-  </si>
-  <si>
-    <t>1957 </t>
-  </si>
-  <si>
-    <t>   1999</t>
-  </si>
-  <si>
-    <t>   1994 </t>
-  </si>
-  <si>
-    <t>  1989</t>
-  </si>
-  <si>
-    <t>   1979  </t>
-  </si>
-  <si>
-    <t> 2016   </t>
-  </si>
-  <si>
-    <t>2011  </t>
-  </si>
-  <si>
-    <t> 2006 </t>
-  </si>
-  <si>
-    <t>  2001 </t>
-  </si>
-  <si>
-    <t>  1996  </t>
-  </si>
-  <si>
-    <t> 1991 </t>
-  </si>
-  <si>
-    <t>1980 </t>
-  </si>
-  <si>
-    <t>   1977   </t>
-  </si>
-  <si>
-    <t>1971  </t>
-  </si>
-  <si>
-    <t>2023 </t>
-  </si>
-  <si>
-    <t> 2018   </t>
-  </si>
-  <si>
-    <t>  2003 </t>
-  </si>
-  <si>
-    <t>  1988</t>
-  </si>
-  <si>
-    <t>2022 </t>
-  </si>
-  <si>
-    <t>1993   </t>
-  </si>
-  <si>
-    <t>1991  </t>
-  </si>
-  <si>
-    <t> 1985   </t>
-  </si>
-  <si>
-    <t>1977  </t>
-  </si>
-  <si>
-    <t> 1974 </t>
-  </si>
-  <si>
-    <t>  1969  </t>
-  </si>
-  <si>
-    <t> 1967 </t>
-  </si>
-  <si>
-    <t>  1962 </t>
-  </si>
-  <si>
-    <t>  1957  </t>
-  </si>
-  <si>
-    <t>   2017 </t>
-  </si>
-  <si>
-    <t>  2012 </t>
-  </si>
-  <si>
-    <t>   2007 </t>
   </si>
   <si>
     <t>  2006</t>
@@ -1234,7 +1235,7 @@
       <selection sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -1262,1148 +1263,1148 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
         <v>56</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>83</v>
-      </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="M21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>212</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" t="s">
         <v>214</v>
-      </c>
-      <c r="D23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G24">
         <v>1996</v>
       </c>
       <c r="H24" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
         <v>235</v>
       </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" t="s">
-        <v>241</v>
-      </c>
-      <c r="O25" t="s">
-        <v>242</v>
-      </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H27" t="s">
         <v>247</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
         <v>248</v>
       </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
         <v>249</v>
       </c>
-      <c r="F27" t="s">
+      <c r="M27" t="s">
         <v>250</v>
       </c>
-      <c r="G27" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" t="s">
-        <v>252</v>
-      </c>
-      <c r="I27" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" t="s">
-        <v>253</v>
-      </c>
-      <c r="L27" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s">
-        <v>255</v>
-      </c>
       <c r="N27" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="B28">
         <v>2018</v>
@@ -2411,142 +2412,142 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" t="s">
         <v>256</v>
       </c>
-      <c r="C29" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" t="s">
-        <v>259</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" t="s">
         <v>260</v>
       </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" t="s">
         <v>261</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="N30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>264</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>265</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>266</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>267</v>
       </c>
-      <c r="Q30" t="s">
-        <v>268</v>
-      </c>
-      <c r="R30" t="s">
-        <v>269</v>
-      </c>
       <c r="S30" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
         <v>270</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>271</v>
       </c>
-      <c r="E31" t="s">
-        <v>272</v>
-      </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
         <v>273</v>
@@ -2567,28 +2568,28 @@
         <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
         <v>279</v>
       </c>
       <c r="N32" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q32" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="R32" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2601,10 +2602,10 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -2617,94 +2618,94 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="W1" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="X1" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="Y1" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="Z1" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="AA1" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="AC1" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="AD1" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="AE1" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="AF1" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -2712,370 +2713,370 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="S2">
         <v>2023</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="V2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="W2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Y2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="AB2">
         <v>2018</v>
       </c>
       <c r="AC2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AD2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AE2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="S3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="V3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="X3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Y3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AC3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AD3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="S4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
+        <v>196</v>
+      </c>
+      <c r="W4" t="s">
         <v>206</v>
       </c>
-      <c r="W4" t="s">
-        <v>215</v>
-      </c>
       <c r="X4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Y4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Z4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AC4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="AD4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" t="s">
-        <v>110</v>
-      </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="T5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="U5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>207</v>
       </c>
-      <c r="W5" t="s">
-        <v>216</v>
-      </c>
       <c r="X5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Y5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Z5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AC5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AD5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF5" t="s">
         <v>273</v>
@@ -3083,85 +3084,85 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="T6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="U6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="V6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" t="s">
         <v>208</v>
       </c>
-      <c r="W6" t="s">
-        <v>217</v>
-      </c>
       <c r="X6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y6" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AA6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AC6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AD6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s">
         <v>274</v>
@@ -3169,85 +3170,85 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="U7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V7" t="s">
         <v>199</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>209</v>
-      </c>
-      <c r="W7" t="s">
-        <v>218</v>
       </c>
       <c r="X7">
         <v>1996</v>
       </c>
       <c r="Y7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Z7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AC7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="AE7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="s">
         <v>275</v>
@@ -3255,82 +3256,82 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="R8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V8" t="s">
         <v>200</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>210</v>
       </c>
-      <c r="W8" t="s">
-        <v>219</v>
-      </c>
       <c r="X8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Y8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Z8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AA8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AC8" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AD8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF8" t="s">
         <v>276</v>
@@ -3338,82 +3339,82 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="R9" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="S9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="T9" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="U9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="W9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AD9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="s">
         <v>277</v>
@@ -3421,82 +3422,82 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="R10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="V10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="X10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="Z10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AC10" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AF10" t="s">
         <v>278</v>
@@ -3504,224 +3505,224 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="R11" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="T11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="W11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Y11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AA11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AC11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AD11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF11" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="R12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="U12" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="W12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="X12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="AA12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="V13" t="s">
+        <v>202</v>
+      </c>
+      <c r="W13" t="s">
         <v>212</v>
       </c>
-      <c r="W13" t="s">
-        <v>221</v>
-      </c>
       <c r="X13" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="AA13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AD13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF13" t="s">
         <v>279</v>
@@ -3729,203 +3730,217 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="R14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="U14" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="W14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="X14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Y14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AA14" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF14" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="V15" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="W15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="X15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Y15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AD15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF15" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="W16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="X16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF16" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="O17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="W17" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AD17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF17" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF18" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="AD19" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B95B764-95F1-7944-ADA4-B641204F3FEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>